--- a/src/apodeixi/knowledge_base/tests_unit/input_data/posting_with_mock_store_big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_unit/input_data/posting_with_mock_store_big-rocks.journeys.a6i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\knowledge_base\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509EE21-9CFA-43CC-84AD-CD509186313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C40CB-2E1D-448B-B946-D2F9A5C44577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7327" yWindow="3885" windowWidth="12578" windowHeight="11715" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Cumulative</t>
   </si>
   <si>
-    <t>simple; burnout</t>
-  </si>
-  <si>
     <t>FusionOpus</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>delivery-planning.journeys.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>burnout</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,7 +689,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
@@ -704,10 +704,10 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>0</v>
@@ -717,10 +717,10 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>33</v>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>26</v>
@@ -807,7 +807,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>29</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>0</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -883,10 +883,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
@@ -900,10 +900,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -928,20 +928,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1029,12 +1029,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F6243DC9F1A5042A9E247A4534B7346" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d7c915ce63f17b192f15f9b5c7111dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16245bed-a411-4918-92cd-ff4510683069" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06dc0855dc4fc49148f60a39d2bf92c3" ns2:_="" ns3:_="">
     <xsd:import namespace="16245bed-a411-4918-92cd-ff4510683069"/>
@@ -1251,6 +1245,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
   <ds:schemaRefs>
@@ -1260,15 +1260,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B48C8D-ED50-492C-9680-7011CC9B9CB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1285,4 +1276,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/apodeixi/knowledge_base/tests_unit/input_data/posting_with_mock_store_big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_unit/input_data/posting_with_mock_store_big-rocks.journeys.a6i.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\knowledge_base\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C40CB-2E1D-448B-B946-D2F9A5C44577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58A03E-F3A9-4A40-B6BE-AA2D7FB470CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>jill.thearchitect@mycorp.com</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>burnout</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,7 +689,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
@@ -704,26 +704,26 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -732,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="12">
         <v>4050</v>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="12">
         <v>6600</v>
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="12">
         <v>4500</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12">
         <v>10351</v>
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12">
         <v>525</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>0</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -883,10 +883,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
@@ -900,10 +900,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -928,30 +928,30 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -968,10 +968,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1020,15 +1020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F6243DC9F1A5042A9E247A4534B7346" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d7c915ce63f17b192f15f9b5c7111dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16245bed-a411-4918-92cd-ff4510683069" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06dc0855dc4fc49148f60a39d2bf92c3" ns2:_="" ns3:_="">
     <xsd:import namespace="16245bed-a411-4918-92cd-ff4510683069"/>
@@ -1245,6 +1236,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1252,14 +1252,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B48C8D-ED50-492C-9680-7011CC9B9CB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1278,6 +1270,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
   <ds:schemaRefs>
